--- a/doc/setting/01_StartUp/【m2o】Spring+Maven_基礎知識と環境構築.xlsx
+++ b/doc/setting/01_StartUp/【m2o】Spring+Maven_基礎知識と環境構築.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5415" tabRatio="775"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="330">
   <si>
     <t>■基礎となる用語の説明</t>
     <rPh sb="1" eb="3">
@@ -3843,10 +3843,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>6.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>インポート直後は標準プロジェクトの状態となる。</t>
     <rPh sb="5" eb="7">
       <t>チョクゴ</t>
@@ -3915,6 +3911,82 @@
   </si>
   <si>
     <t>https://github.com/M2O-Workshop/Training.git</t>
+  </si>
+  <si>
+    <t>対象のプロジェクトを選択し、「OK」を押下する。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>この時「pom.xmlからプロジェクト構成を更新」を選択しておくこと。</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JREのバージョンといった、eclipseのプロジェクト設定がpom.xmlの記述内容に応じて自動的に更新される。</t>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pom.xmlを修正した場合は、ビルド前に「Maven」＞「プロジェクトの更新」からプロジェクト設定を更新しておく。</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -6842,6 +6914,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>138210</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>139934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB8C203-DFE2-4862-8A5F-1C08161202FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487457" y="24529676"/>
+          <a:ext cx="5942857" cy="2005714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6866,7 +6987,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6910,7 +7031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6954,7 +7075,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7130,7 +7251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7244,67 +7365,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>151279</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>173692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>101490</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>185605</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1000E81-B6DD-46CF-9FF3-C0FC45B0CAE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487456" y="15822706"/>
-          <a:ext cx="3866667" cy="3295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5603</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>39221</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7319,140 +7391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="493059" y="15172765"/>
-          <a:ext cx="1720103" cy="274544"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>61631</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>140074</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>128867</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7C9658-A3CD-4D0B-80E1-78CA0CAE9F5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476251" y="17335499"/>
-          <a:ext cx="1720103" cy="274544"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>184896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD7DBC8-E40D-4B32-984C-67B1104C7339}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="498662" y="16629529"/>
-          <a:ext cx="2162735" cy="274544"/>
+          <a:off x="481853" y="26361839"/>
+          <a:ext cx="1042147" cy="190499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7495,13 +7435,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>72919</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>145628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7581,6 +7521,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7962,6 +7907,424 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3866667" cy="3295238"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500C40BB-3F34-4CFA-8D22-DEE9C9456890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487456" y="25980839"/>
+          <a:ext cx="3866667" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C239552-42BC-4159-BA4B-98F5606AE67F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="493059" y="26989368"/>
+          <a:ext cx="1720103" cy="274545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>61631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140074</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC239E84-A4D8-45B6-AD5C-AC63A8A2659A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476251" y="27493631"/>
+          <a:ext cx="1720103" cy="274545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>184896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075AFCF7-1624-4EB0-8A9C-E6F18C2CA9CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="498662" y="28446131"/>
+          <a:ext cx="2162735" cy="274544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50426</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>128867</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0216D839-9033-4450-A9F9-CF76A8B0D722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3675530" y="25493384"/>
+          <a:ext cx="1490382" cy="196101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>113268</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>11255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763C5FB2-5F8E-4886-BC3A-B5D9034C1BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487456" y="27224692"/>
+          <a:ext cx="4662857" cy="4986667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28014</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D707106-9BD2-4090-8ABE-50C890020509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="515470" y="31331647"/>
+          <a:ext cx="1529603" cy="162485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13885,7 +14248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E133"/>
+  <dimension ref="B2:E176"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -14018,12 +14381,12 @@
         <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.75">
       <c r="D42" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.75">
@@ -14036,7 +14399,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.75">
       <c r="D45" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.75">
@@ -14044,7 +14407,7 @@
         <v>96</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.75">
@@ -14065,10 +14428,10 @@
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.75">
       <c r="C86" s="1" t="s">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.75">
@@ -14137,26 +14500,49 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="C116" s="1" t="s">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="C117" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D117" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D130" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D131" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D132" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C159" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D117" s="1" t="s">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="D160" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="3:5" ht="18" x14ac:dyDescent="0.75">
-      <c r="D118" s="5" t="s">
+    <row r="161" spans="4:4" ht="18" x14ac:dyDescent="0.75">
+      <c r="D161" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.75">
-      <c r="D133" s="6" t="s">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D176" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -14165,7 +14551,7 @@
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="D19" r:id="rId2"/>
-    <hyperlink ref="D118" r:id="rId3"/>
+    <hyperlink ref="D161" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
